--- a/team_specific_matrix/Canisius_B.xlsx
+++ b/team_specific_matrix/Canisius_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1875</v>
+        <v>0.1969111969111969</v>
       </c>
       <c r="C2">
-        <v>0.546875</v>
+        <v>0.528957528957529</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01041666666666667</v>
+        <v>0.01544401544401544</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.15625</v>
+        <v>0.1583011583011583</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09895833333333333</v>
+        <v>0.1003861003861004</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009174311926605505</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="C3">
-        <v>0.02752293577981652</v>
+        <v>0.02836879432624113</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.009174311926605505</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7064220183486238</v>
+        <v>0.7092198581560284</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2477064220183486</v>
+        <v>0.2340425531914894</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02857142857142857</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3142857142857143</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05405405405405406</v>
+        <v>0.04608294930875576</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005405405405405406</v>
+        <v>0.009216589861751152</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06486486486486487</v>
+        <v>0.05990783410138249</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2864864864864865</v>
+        <v>0.2949308755760369</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02702702702702703</v>
+        <v>0.02764976958525346</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2</v>
+        <v>0.1889400921658986</v>
       </c>
       <c r="R6">
-        <v>0.05945945945945946</v>
+        <v>0.05990783410138249</v>
       </c>
       <c r="S6">
-        <v>0.3027027027027027</v>
+        <v>0.3133640552995391</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08695652173913043</v>
+        <v>0.09554140127388536</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02898550724637681</v>
+        <v>0.03821656050955414</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07971014492753623</v>
+        <v>0.07006369426751592</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2101449275362319</v>
+        <v>0.2038216560509554</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01449275362318841</v>
+        <v>0.01273885350318471</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1594202898550725</v>
+        <v>0.1592356687898089</v>
       </c>
       <c r="R7">
-        <v>0.07971014492753623</v>
+        <v>0.08280254777070063</v>
       </c>
       <c r="S7">
-        <v>0.3405797101449275</v>
+        <v>0.3375796178343949</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08077994428969359</v>
+        <v>0.08314606741573034</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01671309192200557</v>
+        <v>0.02022471910112359</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05571030640668524</v>
+        <v>0.05842696629213483</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07520891364902507</v>
+        <v>0.0853932584269663</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01392757660167131</v>
+        <v>0.01348314606741573</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2423398328690808</v>
+        <v>0.2179775280898876</v>
       </c>
       <c r="R8">
-        <v>0.06406685236768803</v>
+        <v>0.06292134831460675</v>
       </c>
       <c r="S8">
-        <v>0.4512534818941504</v>
+        <v>0.4584269662921348</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09210526315789473</v>
+        <v>0.1151832460732984</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0131578947368421</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="F9">
-        <v>0.07236842105263158</v>
+        <v>0.06282722513089005</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07236842105263158</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.006578947368421052</v>
+        <v>0.02094240837696335</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2039473684210526</v>
+        <v>0.1884816753926702</v>
       </c>
       <c r="R9">
-        <v>0.07894736842105263</v>
+        <v>0.06282722513089005</v>
       </c>
       <c r="S9">
-        <v>0.4605263157894737</v>
+        <v>0.4450261780104712</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08664627930682976</v>
+        <v>0.09570957095709572</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02344546381243629</v>
+        <v>0.02475247524752475</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07339449541284404</v>
+        <v>0.07095709570957096</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.126401630988787</v>
+        <v>0.1221122112211221</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01834862385321101</v>
+        <v>0.01567656765676568</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2303771661569827</v>
+        <v>0.235973597359736</v>
       </c>
       <c r="R10">
-        <v>0.07951070336391437</v>
+        <v>0.07755775577557755</v>
       </c>
       <c r="S10">
-        <v>0.3618756371049949</v>
+        <v>0.3572607260726073</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1589147286821705</v>
+        <v>0.1495016611295681</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1046511627906977</v>
+        <v>0.1196013289036545</v>
       </c>
       <c r="K11">
-        <v>0.2403100775193799</v>
+        <v>0.2491694352159468</v>
       </c>
       <c r="L11">
-        <v>0.4689922480620155</v>
+        <v>0.451827242524917</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02713178294573643</v>
+        <v>0.02990033222591362</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6796875</v>
+        <v>0.6805555555555556</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.21875</v>
+        <v>0.2291666666666667</v>
       </c>
       <c r="K12">
-        <v>0.015625</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="L12">
-        <v>0.046875</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0390625</v>
+        <v>0.03472222222222222</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6363636363636364</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3636363636363636</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02259887005649718</v>
+        <v>0.02803738317757009</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1525423728813559</v>
+        <v>0.1355140186915888</v>
       </c>
       <c r="I15">
-        <v>0.04519774011299435</v>
+        <v>0.05607476635514019</v>
       </c>
       <c r="J15">
-        <v>0.3785310734463277</v>
+        <v>0.3831775700934579</v>
       </c>
       <c r="K15">
-        <v>0.06779661016949153</v>
+        <v>0.05607476635514019</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1016949152542373</v>
+        <v>0.09813084112149532</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.231638418079096</v>
+        <v>0.2336448598130841</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.04761904761904762</v>
+        <v>0.03550295857988166</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1507936507936508</v>
+        <v>0.1715976331360947</v>
       </c>
       <c r="I16">
-        <v>0.1031746031746032</v>
+        <v>0.106508875739645</v>
       </c>
       <c r="J16">
-        <v>0.4126984126984127</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="K16">
-        <v>0.07142857142857142</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.007936507936507936</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03968253968253968</v>
+        <v>0.04733727810650887</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1666666666666667</v>
+        <v>0.1597633136094675</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02267002518891688</v>
+        <v>0.01890756302521008</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1586901763224181</v>
+        <v>0.1659663865546218</v>
       </c>
       <c r="I17">
-        <v>0.07808564231738035</v>
+        <v>0.07983193277310924</v>
       </c>
       <c r="J17">
-        <v>0.4408060453400504</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="K17">
-        <v>0.1083123425692695</v>
+        <v>0.1029411764705882</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.002518891687657431</v>
+        <v>0.006302521008403362</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06297229219143577</v>
+        <v>0.06302521008403361</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1259445843828715</v>
+        <v>0.1218487394957983</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02962962962962963</v>
+        <v>0.025</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1463,25 +1463,25 @@
         <v>0.2</v>
       </c>
       <c r="I18">
-        <v>0.1111111111111111</v>
+        <v>0.10625</v>
       </c>
       <c r="J18">
-        <v>0.3925925925925926</v>
+        <v>0.3875</v>
       </c>
       <c r="K18">
-        <v>0.08888888888888889</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.007407407407407408</v>
+        <v>0.00625</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05185185185185185</v>
+        <v>0.0625</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1185185185185185</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01792828685258964</v>
+        <v>0.01788617886178862</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2250996015936255</v>
+        <v>0.2268292682926829</v>
       </c>
       <c r="I19">
-        <v>0.08665338645418327</v>
+        <v>0.08780487804878048</v>
       </c>
       <c r="J19">
-        <v>0.3396414342629482</v>
+        <v>0.3479674796747967</v>
       </c>
       <c r="K19">
-        <v>0.1155378486055777</v>
+        <v>0.1065040650406504</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0199203187250996</v>
+        <v>0.01869918699186992</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06673306772908366</v>
+        <v>0.06260162601626017</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1284860557768924</v>
+        <v>0.1317073170731707</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Canisius_B.xlsx
+++ b/team_specific_matrix/Canisius_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1969111969111969</v>
+        <v>0.1977186311787072</v>
       </c>
       <c r="C2">
-        <v>0.528957528957529</v>
+        <v>0.5285171102661597</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01544401544401544</v>
+        <v>0.01520912547528517</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1583011583011583</v>
+        <v>0.155893536121673</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1003861003861004</v>
+        <v>0.1026615969581749</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007092198581560284</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="C3">
-        <v>0.02836879432624113</v>
+        <v>0.02797202797202797</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02127659574468085</v>
+        <v>0.02097902097902098</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7092198581560284</v>
+        <v>0.7132867132867133</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2340425531914894</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04608294930875576</v>
+        <v>0.04910714285714286</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009216589861751152</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05990783410138249</v>
+        <v>0.05803571428571429</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2949308755760369</v>
+        <v>0.2946428571428572</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02764976958525346</v>
+        <v>0.02678571428571428</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1889400921658986</v>
+        <v>0.1919642857142857</v>
       </c>
       <c r="R6">
-        <v>0.05990783410138249</v>
+        <v>0.05803571428571429</v>
       </c>
       <c r="S6">
-        <v>0.3133640552995391</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08314606741573034</v>
+        <v>0.08008658008658008</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02022471910112359</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05842696629213483</v>
+        <v>0.05844155844155844</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0853932584269663</v>
+        <v>0.08658008658008658</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01348314606741573</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2179775280898876</v>
+        <v>0.2207792207792208</v>
       </c>
       <c r="R8">
-        <v>0.06292134831460675</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="S8">
-        <v>0.4584269662921348</v>
+        <v>0.461038961038961</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1151832460732984</v>
+        <v>0.1116751269035533</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01047120418848168</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="E9">
-        <v>0.005235602094240838</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="F9">
-        <v>0.06282722513089005</v>
+        <v>0.06091370558375635</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08900523560209424</v>
+        <v>0.08629441624365482</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02094240837696335</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1884816753926702</v>
+        <v>0.1878172588832487</v>
       </c>
       <c r="R9">
-        <v>0.06282722513089005</v>
+        <v>0.06091370558375635</v>
       </c>
       <c r="S9">
-        <v>0.4450261780104712</v>
+        <v>0.4568527918781726</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09570957095709572</v>
+        <v>0.09409888357256778</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02475247524752475</v>
+        <v>0.02392344497607655</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07095709570957096</v>
+        <v>0.07336523125996811</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1221122112211221</v>
+        <v>0.120414673046252</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01567656765676568</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.235973597359736</v>
+        <v>0.2352472089314195</v>
       </c>
       <c r="R10">
-        <v>0.07755775577557755</v>
+        <v>0.07974481658692185</v>
       </c>
       <c r="S10">
-        <v>0.3572607260726073</v>
+        <v>0.3580542264752791</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1495016611295681</v>
+        <v>0.152317880794702</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1196013289036545</v>
+        <v>0.119205298013245</v>
       </c>
       <c r="K11">
-        <v>0.2491694352159468</v>
+        <v>0.2483443708609271</v>
       </c>
       <c r="L11">
-        <v>0.451827242524917</v>
+        <v>0.4503311258278146</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02990033222591362</v>
+        <v>0.02980132450331126</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6805555555555556</v>
+        <v>0.6758620689655173</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2291666666666667</v>
+        <v>0.2344827586206897</v>
       </c>
       <c r="K12">
-        <v>0.01388888888888889</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="L12">
-        <v>0.04166666666666666</v>
+        <v>0.04137931034482759</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03472222222222222</v>
+        <v>0.03448275862068965</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6129032258064516</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3870967741935484</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02803738317757009</v>
+        <v>0.02690582959641256</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1355140186915888</v>
+        <v>0.1300448430493273</v>
       </c>
       <c r="I15">
-        <v>0.05607476635514019</v>
+        <v>0.05381165919282511</v>
       </c>
       <c r="J15">
-        <v>0.3831775700934579</v>
+        <v>0.3856502242152466</v>
       </c>
       <c r="K15">
-        <v>0.05607476635514019</v>
+        <v>0.05829596412556054</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009345794392523364</v>
+        <v>0.008968609865470852</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09813084112149532</v>
+        <v>0.1031390134529148</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2336448598130841</v>
+        <v>0.2331838565022422</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03550295857988166</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1715976331360947</v>
+        <v>0.1754385964912281</v>
       </c>
       <c r="I16">
-        <v>0.106508875739645</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="J16">
-        <v>0.3846153846153846</v>
+        <v>0.3859649122807017</v>
       </c>
       <c r="K16">
-        <v>0.07692307692307693</v>
+        <v>0.07602339181286549</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01775147928994083</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04733727810650887</v>
+        <v>0.04678362573099415</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1597633136094675</v>
+        <v>0.1578947368421053</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01890756302521008</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1659663865546218</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="I17">
-        <v>0.07983193277310924</v>
+        <v>0.07926829268292683</v>
       </c>
       <c r="J17">
-        <v>0.4411764705882353</v>
+        <v>0.443089430894309</v>
       </c>
       <c r="K17">
-        <v>0.1029411764705882</v>
+        <v>0.09959349593495935</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.006302521008403362</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06302521008403361</v>
+        <v>0.06097560975609756</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1218487394957983</v>
+        <v>0.1199186991869919</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.025</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="I18">
-        <v>0.10625</v>
+        <v>0.1144578313253012</v>
       </c>
       <c r="J18">
-        <v>0.3875</v>
+        <v>0.3855421686746988</v>
       </c>
       <c r="K18">
-        <v>0.08749999999999999</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.00625</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0625</v>
+        <v>0.06024096385542169</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.125</v>
+        <v>0.1204819277108434</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01788617886178862</v>
+        <v>0.01730920535011802</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2268292682926829</v>
+        <v>0.2265932336742722</v>
       </c>
       <c r="I19">
-        <v>0.08780487804878048</v>
+        <v>0.08733280881195908</v>
       </c>
       <c r="J19">
-        <v>0.3479674796747967</v>
+        <v>0.3501180173092053</v>
       </c>
       <c r="K19">
-        <v>0.1065040650406504</v>
+        <v>0.1030684500393391</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01869918699186992</v>
+        <v>0.01888276947285602</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06260162601626017</v>
+        <v>0.06530291109362707</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1317073170731707</v>
+        <v>0.1313926042486231</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Canisius_B.xlsx
+++ b/team_specific_matrix/Canisius_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1977186311787072</v>
+        <v>0.1985294117647059</v>
       </c>
       <c r="C2">
-        <v>0.5285171102661597</v>
+        <v>0.5330882352941176</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01520912547528517</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.155893536121673</v>
+        <v>0.1544117647058824</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1026615969581749</v>
+        <v>0.09926470588235294</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006993006993006993</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="C3">
-        <v>0.02797202797202797</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02097902097902098</v>
+        <v>0.02</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7132867132867133</v>
+        <v>0.72</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2307692307692308</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04910714285714286</v>
+        <v>0.04700854700854701</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008928571428571428</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05803571428571429</v>
+        <v>0.05982905982905983</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2946428571428572</v>
+        <v>0.2863247863247863</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02678571428571428</v>
+        <v>0.02991452991452992</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1919642857142857</v>
+        <v>0.1837606837606838</v>
       </c>
       <c r="R6">
-        <v>0.05803571428571429</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="S6">
-        <v>0.3125</v>
+        <v>0.3290598290598291</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09554140127388536</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03821656050955414</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07006369426751592</v>
+        <v>0.06918238993710692</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2038216560509554</v>
+        <v>0.2012578616352201</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01273885350318471</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1592356687898089</v>
+        <v>0.1572327044025157</v>
       </c>
       <c r="R7">
-        <v>0.08280254777070063</v>
+        <v>0.0880503144654088</v>
       </c>
       <c r="S7">
-        <v>0.3375796178343949</v>
+        <v>0.3396226415094339</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08008658008658008</v>
+        <v>0.08385744234800839</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01948051948051948</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05844155844155844</v>
+        <v>0.05870020964360587</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08658008658008658</v>
+        <v>0.0880503144654088</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01298701298701299</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2207792207792208</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="R8">
-        <v>0.06060606060606061</v>
+        <v>0.05870020964360587</v>
       </c>
       <c r="S8">
-        <v>0.461038961038961</v>
+        <v>0.4570230607966457</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1116751269035533</v>
+        <v>0.1127450980392157</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01015228426395939</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="E9">
-        <v>0.005076142131979695</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="F9">
-        <v>0.06091370558375635</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08629441624365482</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02030456852791878</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1878172588832487</v>
+        <v>0.1911764705882353</v>
       </c>
       <c r="R9">
-        <v>0.06091370558375635</v>
+        <v>0.06862745098039216</v>
       </c>
       <c r="S9">
-        <v>0.4568527918781726</v>
+        <v>0.4509803921568628</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09409888357256778</v>
+        <v>0.09365325077399381</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02392344497607655</v>
+        <v>0.02321981424148607</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07336523125996811</v>
+        <v>0.07507739938080496</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.120414673046252</v>
+        <v>0.119969040247678</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01515151515151515</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2352472089314195</v>
+        <v>0.2376160990712074</v>
       </c>
       <c r="R10">
-        <v>0.07974481658692185</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="S10">
-        <v>0.3580542264752791</v>
+        <v>0.3568111455108359</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.152317880794702</v>
+        <v>0.1558441558441558</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.119205298013245</v>
+        <v>0.1168831168831169</v>
       </c>
       <c r="K11">
-        <v>0.2483443708609271</v>
+        <v>0.25</v>
       </c>
       <c r="L11">
-        <v>0.4503311258278146</v>
+        <v>0.448051948051948</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02980132450331126</v>
+        <v>0.02922077922077922</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6758620689655173</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2344827586206897</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="K12">
-        <v>0.01379310344827586</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="L12">
-        <v>0.04137931034482759</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03448275862068965</v>
+        <v>0.03401360544217687</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02690582959641256</v>
+        <v>0.02586206896551724</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1300448430493273</v>
+        <v>0.125</v>
       </c>
       <c r="I15">
-        <v>0.05381165919282511</v>
+        <v>0.05603448275862069</v>
       </c>
       <c r="J15">
-        <v>0.3856502242152466</v>
+        <v>0.3922413793103448</v>
       </c>
       <c r="K15">
-        <v>0.05829596412556054</v>
+        <v>0.05603448275862069</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.008968609865470852</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1031390134529148</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2331838565022422</v>
+        <v>0.2327586206896552</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03508771929824561</v>
+        <v>0.03932584269662921</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1754385964912281</v>
+        <v>0.1853932584269663</v>
       </c>
       <c r="I16">
-        <v>0.1052631578947368</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="J16">
-        <v>0.3859649122807017</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="K16">
-        <v>0.07602339181286549</v>
+        <v>0.07303370786516854</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01754385964912281</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04678362573099415</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1578947368421053</v>
+        <v>0.1573033707865168</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01829268292682927</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1707317073170732</v>
+        <v>0.1725490196078431</v>
       </c>
       <c r="I17">
-        <v>0.07926829268292683</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="J17">
-        <v>0.443089430894309</v>
+        <v>0.4450980392156862</v>
       </c>
       <c r="K17">
-        <v>0.09959349593495935</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.008130081300813009</v>
+        <v>0.007843137254901961</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06097560975609756</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1199186991869919</v>
+        <v>0.1215686274509804</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02409638554216868</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2048192771084337</v>
+        <v>0.2046783625730994</v>
       </c>
       <c r="I18">
-        <v>0.1144578313253012</v>
+        <v>0.1169590643274854</v>
       </c>
       <c r="J18">
-        <v>0.3855421686746988</v>
+        <v>0.3859649122807017</v>
       </c>
       <c r="K18">
-        <v>0.08433734939759036</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.006024096385542169</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06024096385542169</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1204819277108434</v>
+        <v>0.1169590643274854</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01730920535011802</v>
+        <v>0.01755725190839695</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2265932336742722</v>
+        <v>0.2244274809160305</v>
       </c>
       <c r="I19">
-        <v>0.08733280881195908</v>
+        <v>0.08778625954198473</v>
       </c>
       <c r="J19">
-        <v>0.3501180173092053</v>
+        <v>0.3488549618320611</v>
       </c>
       <c r="K19">
-        <v>0.1030684500393391</v>
+        <v>0.1015267175572519</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01888276947285602</v>
+        <v>0.0183206106870229</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06530291109362707</v>
+        <v>0.06870229007633588</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1313926042486231</v>
+        <v>0.132824427480916</v>
       </c>
     </row>
   </sheetData>
